--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigiNinja\BMW-SMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigiNinja\BMW-SMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">SMG Cape Town Service Work Flow </t>
   </si>
@@ -66,15 +66,6 @@
   </si>
   <si>
     <t>Service Advisor</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>7:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madeegh </t>
   </si>
   <si>
     <t>Ashleigh</t>
@@ -394,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -411,10 +402,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -733,41 +721,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="18"/>
-    <col min="9" max="9" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="37" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="4.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="15"/>
+    <col min="9" max="9" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="34" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
@@ -777,15 +765,15 @@
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="8"/>
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
@@ -831,19 +819,19 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17">
-        <v>27715359443</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="I4" s="19"/>
-      <c r="K4" s="20" t="s">
+      <c r="D4" s="35">
+        <v>27626969018</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="I4" s="16"/>
+      <c r="K4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -851,337 +839,317 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="38">
-        <v>27626969018</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="I5" s="19"/>
-      <c r="K5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="20"/>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="20"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="K12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="22"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="K13" s="20"/>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="26"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="29"/>
-      <c r="K14" s="20"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="K15" s="20"/>
+      <c r="A15" s="19"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="K16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="K17" s="20"/>
+      <c r="A17" s="19"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="K18" s="20"/>
+      <c r="A18" s="19"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="K19" s="20"/>
+      <c r="A19" s="19"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="K20" s="20"/>
+      <c r="A20" s="19"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="K21" s="20"/>
+      <c r="A21" s="19"/>
+      <c r="K21" s="17"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="K22" s="20"/>
+      <c r="A22" s="19"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="K23" s="20"/>
+      <c r="A23" s="19"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="K24" s="20"/>
+      <c r="A24" s="19"/>
+      <c r="K24" s="17"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="K25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="K26" s="20"/>
+      <c r="A26" s="19"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="K27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="K28" s="20"/>
+      <c r="A28" s="19"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="K29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="K30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="K31" s="20"/>
+      <c r="A31" s="19"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="K32" s="20"/>
+      <c r="A32" s="19"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="K33" s="20"/>
+      <c r="A33" s="19"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="K34" s="20"/>
+      <c r="A34" s="19"/>
+      <c r="K34" s="17"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="K35" s="20"/>
+      <c r="A35" s="19"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="K36" s="20"/>
+      <c r="A36" s="19"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="K37" s="20"/>
+      <c r="A37" s="19"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="K38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="K38" s="17"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="K39" s="20"/>
+      <c r="A39" s="19"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="K40" s="20"/>
+      <c r="A40" s="19"/>
+      <c r="K40" s="17"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="K41" s="20"/>
+      <c r="A41" s="19"/>
+      <c r="K41" s="17"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="K42" s="20"/>
+      <c r="A42" s="19"/>
+      <c r="K42" s="8"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="19"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="24"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="19"/>
       <c r="K44" s="8"/>
-      <c r="L44" s="27"/>
+      <c r="L44" s="24"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="19"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="27"/>
+      <c r="L45" s="24"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+      <c r="A46" s="19"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="27"/>
+      <c r="L46" s="24"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="19"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="27"/>
+      <c r="L47" s="24"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="19"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="27"/>
+      <c r="L48" s="24"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="19"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="27"/>
+      <c r="L49" s="24"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="19"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="27"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
+      <c r="A51" s="19"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="33"/>
+      <c r="L51" s="24"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="27"/>
+      <c r="A52" s="19"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="35"/>
+      <c r="A53" s="19"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="35"/>
+      <c r="A54" s="19"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="35"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="35"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="35"/>
+      <c r="A55" s="19"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="32"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigiNinja\BMW-SMS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigiNinja\BMW-SMS\BMW-SMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">SMG Cape Town Service Work Flow </t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Jacqui</t>
+  </si>
+  <si>
+    <t>Ethan</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+      <selection activeCell="K5" sqref="K5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="35">
-        <v>27626969018</v>
+        <v>626969018</v>
       </c>
       <c r="E4" s="14"/>
       <c r="I4" s="16"/>
@@ -841,12 +844,20 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="14">
+        <v>715359443</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="J5" s="21"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
